--- a/_mdl/IexWznmIex_msdc.xlsx
+++ b/_mdl/IexWznmIex_msdc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpsitech/doc/msdc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E70518-CB42-494D-BD9A-8E1EFA0FACB4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26E38C4-9744-2A48-8778-40B7502A6726}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25080" windowHeight="20400" xr2:uid="{962CA199-A3A5-DB4C-8AFD-72A2CF874E9F}"/>
+    <workbookView xWindow="13740" yWindow="460" windowWidth="25080" windowHeight="20400" xr2:uid="{962CA199-A3A5-DB4C-8AFD-72A2CF874E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="IexWznmIex_msdc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="141">
   <si>
     <t>ImeIMImpexpcplx.sref</t>
   </si>
@@ -415,13 +415,46 @@
   </si>
   <si>
     <t>fea</t>
+  </si>
+  <si>
+    <t>Minversion</t>
+  </si>
+  <si>
+    <t>ImeIJMImpexpcplxTitle.srefX1RefWznmMLocale</t>
+  </si>
+  <si>
+    <t>enus</t>
+  </si>
+  <si>
+    <t>initialization data</t>
+  </si>
+  <si>
+    <t>dech</t>
+  </si>
+  <si>
+    <t>Initialisierungsdaten</t>
+  </si>
+  <si>
+    <t>IexWznmIex v0.9.15</t>
+  </si>
+  <si>
+    <t>ImeIMImpexpcplx.end</t>
+  </si>
+  <si>
+    <t>ImeIJMImpexpcplxTitle.end</t>
+  </si>
+  <si>
+    <t>ImeIMImpexp.end</t>
+  </si>
+  <si>
+    <t>ImeIMImpexpcol.end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,17 +463,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -466,10 +505,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -784,1866 +825,1974 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D507EE3-2765-1548-BA85-5F618A3EC5EB}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="25.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H13">
+      <c r="H18" s="4">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
+    <row r="19" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+    <row r="21" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H16">
+      <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+    <row r="26" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
+    <row r="28" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
+    <row r="33" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
         <v>4</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
+    <row r="35" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M35" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+    <row r="39" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
+    <row r="41" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M42" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2">
+    <row r="47" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
         <v>6</v>
       </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
+    <row r="49" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M49" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2">
+    <row r="52" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
         <v>7</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C53" s="1">
         <v>6</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G53" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
+    <row r="54" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G54" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M54" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" t="s">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H44">
+      <c r="H55" s="4">
         <v>6</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I55" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C56" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D56" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E56" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F56" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" t="s">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E57" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F57" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G57" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F58" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2">
+    <row r="59" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
         <v>8</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C60" s="1">
         <v>6</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
+    <row r="61" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L61" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M61" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" t="s">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F62" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" t="s">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F63" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H51">
+      <c r="H63" s="4">
         <v>6</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I63" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" t="s">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" t="s">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H54">
+      <c r="H66" s="4">
         <v>9</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I66" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C67" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D67" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E67" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F67" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G67" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C68" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D68" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E68" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F68" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G68" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" t="s">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E69" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F69" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G69" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" t="s">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E70" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F70" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G70" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="2">
+    <row r="72" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1">
         <v>9</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C73" s="1">
         <v>8</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G73" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="1" t="s">
+    <row r="74" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G74" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J74" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M74" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" t="s">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F75" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H62">
+      <c r="H75" s="4">
         <v>8</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I75" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C76" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E76" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F76" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G76" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="2">
+    <row r="77" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1">
         <v>10</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C78" s="1">
         <v>8</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G78" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="1" t="s">
+    <row r="79" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G79" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L79" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M79" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" t="s">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F80" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M80" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E81" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F81" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G81" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" t="s">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C82" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E82" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F82" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G82" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" t="s">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E83" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F83" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G83" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" t="s">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F84" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H70">
+      <c r="H84" s="4">
         <v>11</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I84" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="2">
+    <row r="85" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="1">
         <v>11</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C86" s="1">
         <v>10</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E86" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G86" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="1" t="s">
+    <row r="87" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G87" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H87" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J87" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K87" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L87" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M87" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" t="s">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F88" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H73">
+      <c r="H88" s="4">
         <v>10</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I88" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" t="s">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E89" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F89" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G89" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="2">
+    <row r="90" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
         <v>12</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C91" s="1">
         <v>8</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E91" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G91" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="1" t="s">
+    <row r="92" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F92" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G92" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H92" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J92" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M92" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" t="s">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F93" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H77">
+      <c r="H93" s="4">
         <v>8</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I93" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C94" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D94" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E94" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F94" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G94" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" t="s">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E95" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F95" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G95" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C96" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D96" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E96" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F96" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G96" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
